--- a/templates/community/MAdLand/MAdLand_nanodrop.xlsx
+++ b/templates/community/MAdLand/MAdLand_nanodrop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306FFF6-C985-415E-9349-6A1E3F6CA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C9946B-7253-4F5D-883D-6A2A766CF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanodrop_measurement" sheetId="1" r:id="rId1"/>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1E3AD2D9-8639-429C-8FA3-326D03C04534}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=d7baa4b8-7b16-4a42-b44d-f2a9df93b932</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{378DEDCF-BFE2-43CC-B529-60DF24DE58E3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{FC2FB94F-3335-46E1-A0C3-D38D71504AFD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{5D28CD06-ABC7-44BF-8A77-2501F4BAD598}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8BA7934E-3197-4108-9454-F27C75D4DCC2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{9A7B6EAC-AEF9-41DF-9866-DD10DE84058E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{D78F4A99-801F-461C-9C53-9221F641D8D3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4B4A45EB-613E-442D-BF07-819A24E59E06}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{F823AB1E-0BD3-43C9-963D-768CE1360E35}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Source Name</t>
   </si>
@@ -310,13 +310,16 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>EFO:0001444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,12 +342,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -496,8 +493,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,9 +549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -592,7 +589,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -698,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -840,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,34 +915,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,17 +1026,17 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1055,7 +1052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1087,38 +1084,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1129,27 +1126,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1165,13 +1164,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1179,49 +1178,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>

--- a/templates/community/MAdLand/MAdLand_nanodrop.xlsx
+++ b/templates/community/MAdLand/MAdLand_nanodrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C9946B-7253-4F5D-883D-6A2A766CF78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0491E4C-915B-4AE1-9FF8-1C88C344A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanodrop_measurement" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Source Name</t>
   </si>
@@ -138,12 +138,6 @@
     <t>Parameter [Date]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000153)</t>
-  </si>
-  <si>
     <t>Parameter [mass per unit volume]</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>Parameter [Volume]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000154)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000154)</t>
-  </si>
-  <si>
     <t>Parameter [mass]</t>
   </si>
   <si>
@@ -285,21 +273,9 @@
     <t>Parameter [260/280 ratio]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000159)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000159)</t>
-  </si>
-  <si>
     <t>Parameter [260/230 ratio]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:1000160)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:1000160)</t>
-  </si>
-  <si>
     <t>Authors ORCID</t>
   </si>
   <si>
@@ -313,6 +289,33 @@
   </si>
   <si>
     <t>EFO:0001444</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C25164)</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C25335)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C25335)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000159)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000159)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000160)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000160)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -491,12 +494,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,27 +562,27 @@
   <autoFilter ref="A1:W2" xr:uid="{5EDE9D6F-97EE-4F30-B633-7A9A034F46E0}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{4CA737A7-C2D0-4443-87CE-9F7E7A05D0BD}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{49672962-B1ED-4776-96E7-0131A5AA5B2A}" name="Parameter [Date]"/>
-    <tableColumn id="4" xr3:uid="{A861B294-AE97-4B2E-8C17-CFC3AB9B276F}" name="Term Source REF (NFDI4PSO:1000153)"/>
-    <tableColumn id="5" xr3:uid="{4102316F-D21E-4011-BFF9-8E78C2E27681}" name="Term Accession Number (NFDI4PSO:1000153)"/>
+    <tableColumn id="3" xr3:uid="{4D48D161-7523-4B45-BDC9-E22EF57E05AA}" name="Parameter [Date]" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F5B0B1E5-41D5-43BD-B41B-78FA5E7F9C82}" name="Term Source REF (NCIT:C25164)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{778C7DB1-F9FA-4C1D-9B60-08A8A78CC090}" name="Term Accession Number (NCIT:C25164)" dataDxfId="9"/>
     <tableColumn id="21" xr3:uid="{9700C3EC-725F-4A97-B5BD-E5F8A1BEC5C4}" name="Parameter [nucleic acid]"/>
     <tableColumn id="22" xr3:uid="{99AAE40D-FE73-4DAF-BFB4-12BFEC7B2B21}" name="Term Source REF (CHEBI:33696)"/>
     <tableColumn id="23" xr3:uid="{9B3A08C7-6613-4825-84C9-373C746A62EA}" name="Term Accession Number (CHEBI:33696)"/>
     <tableColumn id="12" xr3:uid="{6886EF52-B980-4645-9BF5-33879DB374EE}" name="Parameter [mass per unit volume]"/>
     <tableColumn id="13" xr3:uid="{F23A9561-E234-4552-B488-0FAB9490B310}" name="Term Source REF ()"/>
     <tableColumn id="14" xr3:uid="{A3AD3C56-CAEE-404E-B6D6-9442DDD57500}" name="Term Accession Number ()"/>
-    <tableColumn id="15" xr3:uid="{E3E8A0DD-C87C-4E87-BEA9-AC9EE42F430A}" name="Parameter [Volume]"/>
-    <tableColumn id="16" xr3:uid="{5A15328C-0F7A-45B1-A7B6-63076F9D60CE}" name="Term Source REF (NFDI4PSO:1000154)"/>
-    <tableColumn id="17" xr3:uid="{76E473C2-4EBC-43AF-9BCB-33EFBAA3F8BA}" name="Term Accession Number (NFDI4PSO:1000154)"/>
+    <tableColumn id="15" xr3:uid="{634A0878-A814-4AA4-85FF-746C2210E161}" name="Parameter [Volume]" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{04B5BC25-86F4-4D75-A468-38A860D40A2C}" name="Term Source REF (NCIT:C25335)" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{44362C8D-4429-4856-9B39-73058655AF0E}" name="Term Accession Number (NCIT:C25335)" dataDxfId="6"/>
     <tableColumn id="18" xr3:uid="{02EBD826-0DDB-4959-BCF9-3C849F32FD20}" name="Parameter [mass]"/>
     <tableColumn id="19" xr3:uid="{46EE1405-71E1-4ECC-B095-9BE5557369E8}" name="Term Source REF (PATO:0000125)"/>
     <tableColumn id="20" xr3:uid="{A7A20EF0-3946-457E-BEEF-2ABBB0FDE2A9}" name="Term Accession Number (PATO:0000125)"/>
-    <tableColumn id="6" xr3:uid="{8CB6515F-464F-4B0B-AE7D-3D46506493C0}" name="Parameter [260/280 ratio]"/>
-    <tableColumn id="7" xr3:uid="{2EB6A411-826D-4C55-91E1-CD2B93F5EBB4}" name="Term Source REF (NFDI4PSO:1000159)"/>
-    <tableColumn id="8" xr3:uid="{89D5E8A4-2362-45E5-90B5-18D016BF4967}" name="Term Accession Number (NFDI4PSO:1000159)"/>
-    <tableColumn id="9" xr3:uid="{87773EBA-6CDA-4351-86DA-9ABA061453D0}" name="Parameter [260/230 ratio]"/>
-    <tableColumn id="10" xr3:uid="{7E96F09E-BABA-4075-A001-612B88469622}" name="Term Source REF (NFDI4PSO:1000160)"/>
-    <tableColumn id="11" xr3:uid="{B0E4D39B-9F32-4598-BEF7-A24EC6BA97F3}" name="Term Accession Number (NFDI4PSO:1000160)"/>
+    <tableColumn id="24" xr3:uid="{84B1CC6C-78F7-4CD1-A319-FD5B71A9D27F}" name="Parameter [260/280 ratio]" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{CF84A06E-08E4-4A67-8C26-C3D539AB6C81}" name="Term Source REF (DPBO:1000159)" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{7C5F0B4D-0BB9-44CD-8EE8-7838D3AACF1C}" name="Term Accession Number (DPBO:1000159)" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{9E8F91C1-C1C7-4598-9414-832ACAFBE150}" name="Parameter [260/230 ratio]" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{EC45E210-78D5-4716-BFFF-76CE1CCF51B2}" name="Term Source REF (DPBO:1000160)" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{403713B6-F3CB-456A-BD92-143CF1705BBD}" name="Term Accession Number (DPBO:1000160)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B9EFE66F-6DAE-405E-A112-39767083BD84}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -883,7 +924,7 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="750" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -911,35 +952,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AD9B0-5AEA-4F5E-BC15-EA76DD5B667C}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.88671875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="26.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.5546875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="39.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -950,67 +993,99 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="V1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="W1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A16521-8BA8-42D8-AD4F-81EE3C7D2CC3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1038,191 +1113,191 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B27" s="9"/>
     </row>

--- a/templates/community/MAdLand/MAdLand_nanodrop.xlsx
+++ b/templates/community/MAdLand/MAdLand_nanodrop.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MAdLand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0491E4C-915B-4AE1-9FF8-1C88C344A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E94440-164A-4588-B540-735E35025A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanodrop_measurement" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AD9B0-5AEA-4F5E-BC15-EA76DD5B667C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A16521-8BA8-42D8-AD4F-81EE3C7D2CC3}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
